--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H2">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N2">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O2">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P2">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q2">
-        <v>1.447255826041334</v>
+        <v>2.863446897077778</v>
       </c>
       <c r="R2">
-        <v>13.025302434372</v>
+        <v>25.7710220737</v>
       </c>
       <c r="S2">
-        <v>0.03106600139688232</v>
+        <v>0.07297913436951728</v>
       </c>
       <c r="T2">
-        <v>0.03106600139688231</v>
+        <v>0.07297913436951728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H3">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q3">
-        <v>0.2901197500066667</v>
+        <v>0.6880772536444445</v>
       </c>
       <c r="R3">
-        <v>2.61107775006</v>
+        <v>6.1926952828</v>
       </c>
       <c r="S3">
-        <v>0.006227551754704665</v>
+        <v>0.0175366557003632</v>
       </c>
       <c r="T3">
-        <v>0.006227551754704665</v>
+        <v>0.0175366557003632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H4">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N4">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O4">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P4">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q4">
-        <v>0.014625795547</v>
+        <v>0.02797887284666667</v>
       </c>
       <c r="R4">
-        <v>0.131632159923</v>
+        <v>0.25180985562</v>
       </c>
       <c r="S4">
-        <v>0.0003139493216872637</v>
+        <v>0.0007130825171119153</v>
       </c>
       <c r="T4">
-        <v>0.0003139493216872637</v>
+        <v>0.0007130825171119154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H5">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N5">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q5">
-        <v>0.159100856358</v>
+        <v>0.2739645388822222</v>
       </c>
       <c r="R5">
-        <v>1.431907707222</v>
+        <v>2.46568084994</v>
       </c>
       <c r="S5">
-        <v>0.003415171897688833</v>
+        <v>0.006982387176787746</v>
       </c>
       <c r="T5">
-        <v>0.003415171897688833</v>
+        <v>0.006982387176787747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H6">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I6">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J6">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N6">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O6">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P6">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q6">
-        <v>0.09815621722400002</v>
+        <v>0.009509971302222224</v>
       </c>
       <c r="R6">
-        <v>0.8834059550160001</v>
+        <v>0.08558974172</v>
       </c>
       <c r="S6">
-        <v>0.002106967632484335</v>
+        <v>0.0002423755349622177</v>
       </c>
       <c r="T6">
-        <v>0.002106967632484334</v>
+        <v>0.0002423755349622177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.757262</v>
       </c>
       <c r="I7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N7">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O7">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P7">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q7">
-        <v>30.33152846710134</v>
+        <v>25.30336126547667</v>
       </c>
       <c r="R7">
-        <v>272.983756203912</v>
+        <v>227.73025138929</v>
       </c>
       <c r="S7">
-        <v>0.651079987914752</v>
+        <v>0.6448931892811358</v>
       </c>
       <c r="T7">
-        <v>0.6510799879147519</v>
+        <v>0.6448931892811359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.757262</v>
       </c>
       <c r="I8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q8">
         <v>6.080317866306666</v>
       </c>
       <c r="R8">
-        <v>54.72286079676001</v>
+        <v>54.72286079676</v>
       </c>
       <c r="S8">
-        <v>0.1305167752164756</v>
+        <v>0.1549657983975241</v>
       </c>
       <c r="T8">
-        <v>0.1305167752164756</v>
+        <v>0.1549657983975241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>1.757262</v>
       </c>
       <c r="I9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N9">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O9">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P9">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q9">
-        <v>0.306526825462</v>
+        <v>0.247240320106</v>
       </c>
       <c r="R9">
-        <v>2.758741429158</v>
+        <v>2.225162880954</v>
       </c>
       <c r="S9">
-        <v>0.006579737055909029</v>
+        <v>0.00630128135464708</v>
       </c>
       <c r="T9">
-        <v>0.006579737055909028</v>
+        <v>0.006301281354647082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>1.757262</v>
       </c>
       <c r="I10">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J10">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N10">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q10">
-        <v>3.334429246668</v>
+        <v>2.420936706855333</v>
       </c>
       <c r="R10">
-        <v>30.009863220012</v>
+        <v>21.788430361698</v>
       </c>
       <c r="S10">
-        <v>0.07157503308736715</v>
+        <v>0.06170111462866532</v>
       </c>
       <c r="T10">
-        <v>0.07157503308736715</v>
+        <v>0.06170111462866534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.757262</v>
       </c>
       <c r="I11">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J11">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N11">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O11">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P11">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q11">
-        <v>2.057153989904</v>
+        <v>0.08403656436933334</v>
       </c>
       <c r="R11">
-        <v>18.514385909136</v>
+        <v>0.7563290793240001</v>
       </c>
       <c r="S11">
-        <v>0.04415774155061822</v>
+        <v>0.002141794817051074</v>
       </c>
       <c r="T11">
-        <v>0.04415774155061822</v>
+        <v>0.002141794817051075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H12">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N12">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O12">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P12">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q12">
-        <v>1.77715910944</v>
+        <v>0.7824585355888889</v>
       </c>
       <c r="R12">
-        <v>15.99443198496</v>
+        <v>7.0421268203</v>
       </c>
       <c r="S12">
-        <v>0.03814752470360303</v>
+        <v>0.019942100782659</v>
       </c>
       <c r="T12">
-        <v>0.03814752470360302</v>
+        <v>0.019942100782659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H13">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.14098</v>
       </c>
       <c r="O13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q13">
-        <v>0.3562528112</v>
+        <v>0.1880223170222222</v>
       </c>
       <c r="R13">
-        <v>3.2062753008</v>
+        <v>1.6922008532</v>
       </c>
       <c r="S13">
-        <v>0.007647127847918139</v>
+        <v>0.004792023889961462</v>
       </c>
       <c r="T13">
-        <v>0.007647127847918139</v>
+        <v>0.004792023889961462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H14">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I14">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J14">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N14">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O14">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P14">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q14">
-        <v>0.01795975896</v>
+        <v>0.007645438753333332</v>
       </c>
       <c r="R14">
-        <v>0.16163783064</v>
+        <v>0.06880894878</v>
       </c>
       <c r="S14">
-        <v>0.0003855143554440906</v>
+        <v>0.000194855194508003</v>
       </c>
       <c r="T14">
-        <v>0.0003855143554440906</v>
+        <v>0.000194855194508003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H15">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I15">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J15">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N15">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q15">
-        <v>0.19536804144</v>
+        <v>0.07486288365111109</v>
       </c>
       <c r="R15">
-        <v>1.75831237296</v>
+        <v>0.67376595286</v>
       </c>
       <c r="S15">
-        <v>0.004193663441578615</v>
+        <v>0.001907990139729689</v>
       </c>
       <c r="T15">
-        <v>0.004193663441578615</v>
+        <v>0.00190799013972969</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H16">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I16">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J16">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N16">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O16">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P16">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q16">
-        <v>0.12053101632</v>
+        <v>0.002598671631111111</v>
       </c>
       <c r="R16">
-        <v>1.08477914688</v>
+        <v>0.02338804468</v>
       </c>
       <c r="S16">
-        <v>0.002587252822886771</v>
+        <v>6.623094926001666E-05</v>
       </c>
       <c r="T16">
-        <v>0.00258725282288677</v>
+        <v>6.623094926001666E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.003124</v>
+      </c>
+      <c r="H17">
+        <v>0.009372</v>
+      </c>
+      <c r="I17">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J17">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>43.19793166666667</v>
+      </c>
+      <c r="N17">
+        <v>129.593795</v>
+      </c>
+      <c r="O17">
+        <v>0.7412538312889448</v>
+      </c>
+      <c r="P17">
+        <v>0.7412538312889448</v>
+      </c>
+      <c r="Q17">
+        <v>0.1349503385266667</v>
+      </c>
+      <c r="R17">
+        <v>1.21455304674</v>
+      </c>
+      <c r="S17">
+        <v>0.003439406855632686</v>
+      </c>
+      <c r="T17">
+        <v>0.003439406855632687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.003124</v>
+      </c>
+      <c r="H18">
+        <v>0.009372</v>
+      </c>
+      <c r="I18">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J18">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.38032666666667</v>
+      </c>
+      <c r="N18">
+        <v>31.14098</v>
+      </c>
+      <c r="O18">
+        <v>0.1781209566020688</v>
+      </c>
+      <c r="P18">
+        <v>0.1781209566020688</v>
+      </c>
+      <c r="Q18">
+        <v>0.03242814050666667</v>
+      </c>
+      <c r="R18">
+        <v>0.29185326456</v>
+      </c>
+      <c r="S18">
+        <v>0.0008264786142200741</v>
+      </c>
+      <c r="T18">
+        <v>0.0008264786142200742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.003124</v>
+      </c>
+      <c r="H19">
+        <v>0.009372</v>
+      </c>
+      <c r="I19">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J19">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.422089</v>
+      </c>
+      <c r="N19">
+        <v>1.266267</v>
+      </c>
+      <c r="O19">
+        <v>0.007242825670663926</v>
+      </c>
+      <c r="P19">
+        <v>0.007242825670663927</v>
+      </c>
+      <c r="Q19">
+        <v>0.001318606036</v>
+      </c>
+      <c r="R19">
+        <v>0.011867454324</v>
+      </c>
+      <c r="S19">
+        <v>3.360660439692683E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.360660439692684E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.003124</v>
+      </c>
+      <c r="H20">
+        <v>0.009372</v>
+      </c>
+      <c r="I20">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J20">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.133026333333333</v>
+      </c>
+      <c r="N20">
+        <v>12.399079</v>
+      </c>
+      <c r="O20">
+        <v>0.07092056230936286</v>
+      </c>
+      <c r="P20">
+        <v>0.07092056230936288</v>
+      </c>
+      <c r="Q20">
+        <v>0.01291157426533333</v>
+      </c>
+      <c r="R20">
+        <v>0.116204168388</v>
+      </c>
+      <c r="S20">
+        <v>0.0003290703641801003</v>
+      </c>
+      <c r="T20">
+        <v>0.0003290703641801004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.003124</v>
+      </c>
+      <c r="H21">
+        <v>0.009372</v>
+      </c>
+      <c r="I21">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J21">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1434673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.430402</v>
+      </c>
+      <c r="O21">
+        <v>0.002461824128959449</v>
+      </c>
+      <c r="P21">
+        <v>0.002461824128959449</v>
+      </c>
+      <c r="Q21">
+        <v>0.0004481919493333334</v>
+      </c>
+      <c r="R21">
+        <v>0.004033727544</v>
+      </c>
+      <c r="S21">
+        <v>1.142282768614052E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.142282768614053E-05</v>
       </c>
     </row>
   </sheetData>
